--- a/data/survival/Westcott/D_survival_09122024.xlsx
+++ b/data/survival/Westcott/D_survival_09122024.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graceleuchtenberger/Library/Mobile Documents/com~apple~CloudDocs/Documents/project-gigas-conditioning-GL/data/survival/Westcott/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{046E9D85-4018-AC4F-AADC-07C1DFE27C42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BE8B0AC-52B7-5849-8930-106E8E752BC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6220" yWindow="500" windowWidth="28040" windowHeight="17440" xr2:uid="{05BFE67F-2973-3145-973B-13A560625EC9}"/>
+    <workbookView xWindow="5820" yWindow="1320" windowWidth="28040" windowHeight="17440" xr2:uid="{05BFE67F-2973-3145-973B-13A560625EC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1639" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1773" uniqueCount="43">
   <si>
     <t>bag_num</t>
   </si>
@@ -160,6 +160,12 @@
   </si>
   <si>
     <t>Ariana</t>
+  </si>
+  <si>
+    <t>Counted 98 in pic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Counted 103 in pic </t>
   </si>
 </sst>
 </file>
@@ -542,10 +548,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A079655-F369-EC42-A8CC-268AB3376697}">
-  <dimension ref="A1:K265"/>
+  <dimension ref="A1:K287"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A236" workbookViewId="0">
-      <selection activeCell="K266" sqref="K266"/>
+    <sheetView tabSelected="1" topLeftCell="A260" workbookViewId="0">
+      <selection activeCell="N283" sqref="N283"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9160,6 +9166,716 @@
         <v>97</v>
       </c>
       <c r="J265" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A266" t="s">
+        <v>32</v>
+      </c>
+      <c r="B266" t="s">
+        <v>33</v>
+      </c>
+      <c r="C266" t="s">
+        <v>34</v>
+      </c>
+      <c r="D266" t="s">
+        <v>35</v>
+      </c>
+      <c r="E266" t="s">
+        <v>37</v>
+      </c>
+      <c r="F266" s="1">
+        <v>45643</v>
+      </c>
+      <c r="G266" t="s">
+        <v>40</v>
+      </c>
+      <c r="H266">
+        <v>11</v>
+      </c>
+      <c r="I266" s="2">
+        <v>90</v>
+      </c>
+      <c r="J266" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A267" t="s">
+        <v>32</v>
+      </c>
+      <c r="B267" t="s">
+        <v>33</v>
+      </c>
+      <c r="C267" t="s">
+        <v>34</v>
+      </c>
+      <c r="D267" t="s">
+        <v>35</v>
+      </c>
+      <c r="E267" t="s">
+        <v>37</v>
+      </c>
+      <c r="F267" s="1">
+        <v>45643</v>
+      </c>
+      <c r="G267" t="s">
+        <v>40</v>
+      </c>
+      <c r="H267">
+        <v>12</v>
+      </c>
+      <c r="I267" s="2">
+        <v>51</v>
+      </c>
+      <c r="J267">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A268" t="s">
+        <v>32</v>
+      </c>
+      <c r="B268" t="s">
+        <v>33</v>
+      </c>
+      <c r="C268" t="s">
+        <v>34</v>
+      </c>
+      <c r="D268" t="s">
+        <v>35</v>
+      </c>
+      <c r="E268" t="s">
+        <v>37</v>
+      </c>
+      <c r="F268" s="1">
+        <v>45643</v>
+      </c>
+      <c r="G268" t="s">
+        <v>40</v>
+      </c>
+      <c r="H268">
+        <v>13</v>
+      </c>
+      <c r="I268">
+        <v>101</v>
+      </c>
+      <c r="J268">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A269" t="s">
+        <v>32</v>
+      </c>
+      <c r="B269" t="s">
+        <v>33</v>
+      </c>
+      <c r="C269" t="s">
+        <v>34</v>
+      </c>
+      <c r="D269" t="s">
+        <v>35</v>
+      </c>
+      <c r="E269" t="s">
+        <v>37</v>
+      </c>
+      <c r="F269" s="1">
+        <v>45643</v>
+      </c>
+      <c r="G269" t="s">
+        <v>40</v>
+      </c>
+      <c r="H269">
+        <v>14</v>
+      </c>
+      <c r="I269" s="2">
+        <v>100</v>
+      </c>
+      <c r="J269">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A270" t="s">
+        <v>32</v>
+      </c>
+      <c r="B270" t="s">
+        <v>33</v>
+      </c>
+      <c r="C270" t="s">
+        <v>34</v>
+      </c>
+      <c r="D270" t="s">
+        <v>35</v>
+      </c>
+      <c r="E270" t="s">
+        <v>37</v>
+      </c>
+      <c r="F270" s="1">
+        <v>45643</v>
+      </c>
+      <c r="G270" t="s">
+        <v>40</v>
+      </c>
+      <c r="H270">
+        <v>15</v>
+      </c>
+      <c r="I270" s="2">
+        <v>99</v>
+      </c>
+      <c r="J270">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A271" t="s">
+        <v>32</v>
+      </c>
+      <c r="B271" t="s">
+        <v>33</v>
+      </c>
+      <c r="C271" t="s">
+        <v>34</v>
+      </c>
+      <c r="D271" t="s">
+        <v>35</v>
+      </c>
+      <c r="E271" t="s">
+        <v>37</v>
+      </c>
+      <c r="F271" s="1">
+        <v>45643</v>
+      </c>
+      <c r="G271" t="s">
+        <v>40</v>
+      </c>
+      <c r="H271">
+        <v>16</v>
+      </c>
+      <c r="I271">
+        <v>92</v>
+      </c>
+      <c r="J271">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A272" t="s">
+        <v>32</v>
+      </c>
+      <c r="B272" t="s">
+        <v>33</v>
+      </c>
+      <c r="C272" t="s">
+        <v>34</v>
+      </c>
+      <c r="D272" t="s">
+        <v>35</v>
+      </c>
+      <c r="E272" t="s">
+        <v>37</v>
+      </c>
+      <c r="F272" s="1">
+        <v>45643</v>
+      </c>
+      <c r="G272" t="s">
+        <v>40</v>
+      </c>
+      <c r="H272">
+        <v>17</v>
+      </c>
+      <c r="I272" s="2">
+        <v>102</v>
+      </c>
+      <c r="J272">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A273" t="s">
+        <v>32</v>
+      </c>
+      <c r="B273" t="s">
+        <v>33</v>
+      </c>
+      <c r="C273" t="s">
+        <v>34</v>
+      </c>
+      <c r="D273" t="s">
+        <v>35</v>
+      </c>
+      <c r="E273" t="s">
+        <v>37</v>
+      </c>
+      <c r="F273" s="1">
+        <v>45643</v>
+      </c>
+      <c r="G273" t="s">
+        <v>40</v>
+      </c>
+      <c r="H273">
+        <v>18</v>
+      </c>
+      <c r="I273">
+        <v>97</v>
+      </c>
+      <c r="J273">
+        <v>1</v>
+      </c>
+      <c r="K273" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="274" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A274" t="s">
+        <v>32</v>
+      </c>
+      <c r="B274" t="s">
+        <v>33</v>
+      </c>
+      <c r="C274" t="s">
+        <v>34</v>
+      </c>
+      <c r="D274" t="s">
+        <v>35</v>
+      </c>
+      <c r="E274" t="s">
+        <v>37</v>
+      </c>
+      <c r="F274" s="1">
+        <v>45643</v>
+      </c>
+      <c r="G274" t="s">
+        <v>40</v>
+      </c>
+      <c r="H274">
+        <v>19</v>
+      </c>
+      <c r="I274" s="2">
+        <v>99</v>
+      </c>
+      <c r="J274">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A275" t="s">
+        <v>32</v>
+      </c>
+      <c r="B275" t="s">
+        <v>33</v>
+      </c>
+      <c r="C275" t="s">
+        <v>34</v>
+      </c>
+      <c r="D275" t="s">
+        <v>35</v>
+      </c>
+      <c r="E275" t="s">
+        <v>37</v>
+      </c>
+      <c r="F275" s="1">
+        <v>45643</v>
+      </c>
+      <c r="G275" t="s">
+        <v>40</v>
+      </c>
+      <c r="H275">
+        <v>20</v>
+      </c>
+      <c r="I275">
+        <v>104</v>
+      </c>
+      <c r="J275">
+        <v>1</v>
+      </c>
+      <c r="K275" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="276" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A276" t="s">
+        <v>32</v>
+      </c>
+      <c r="B276" t="s">
+        <v>33</v>
+      </c>
+      <c r="C276" t="s">
+        <v>34</v>
+      </c>
+      <c r="D276" t="s">
+        <v>35</v>
+      </c>
+      <c r="E276" t="s">
+        <v>37</v>
+      </c>
+      <c r="F276" s="1">
+        <v>45643</v>
+      </c>
+      <c r="G276" t="s">
+        <v>40</v>
+      </c>
+      <c r="H276">
+        <v>21</v>
+      </c>
+      <c r="I276" s="2">
+        <v>94</v>
+      </c>
+      <c r="J276">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A277" t="s">
+        <v>32</v>
+      </c>
+      <c r="B277" t="s">
+        <v>33</v>
+      </c>
+      <c r="C277" t="s">
+        <v>34</v>
+      </c>
+      <c r="D277" t="s">
+        <v>36</v>
+      </c>
+      <c r="E277" t="s">
+        <v>37</v>
+      </c>
+      <c r="F277" s="1">
+        <v>45643</v>
+      </c>
+      <c r="G277" t="s">
+        <v>40</v>
+      </c>
+      <c r="H277">
+        <v>22</v>
+      </c>
+      <c r="I277">
+        <v>63</v>
+      </c>
+      <c r="J277">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="278" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A278" t="s">
+        <v>32</v>
+      </c>
+      <c r="B278" t="s">
+        <v>33</v>
+      </c>
+      <c r="C278" t="s">
+        <v>34</v>
+      </c>
+      <c r="D278" t="s">
+        <v>36</v>
+      </c>
+      <c r="E278" t="s">
+        <v>37</v>
+      </c>
+      <c r="F278" s="1">
+        <v>45643</v>
+      </c>
+      <c r="G278" t="s">
+        <v>40</v>
+      </c>
+      <c r="H278">
+        <v>23</v>
+      </c>
+      <c r="I278" s="2">
+        <v>97</v>
+      </c>
+      <c r="J278">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A279" t="s">
+        <v>32</v>
+      </c>
+      <c r="B279" t="s">
+        <v>33</v>
+      </c>
+      <c r="C279" t="s">
+        <v>34</v>
+      </c>
+      <c r="D279" t="s">
+        <v>36</v>
+      </c>
+      <c r="E279" t="s">
+        <v>37</v>
+      </c>
+      <c r="F279" s="1">
+        <v>45643</v>
+      </c>
+      <c r="G279" t="s">
+        <v>40</v>
+      </c>
+      <c r="H279">
+        <v>24</v>
+      </c>
+      <c r="I279" s="2">
+        <v>103</v>
+      </c>
+      <c r="J279">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A280" t="s">
+        <v>32</v>
+      </c>
+      <c r="B280" t="s">
+        <v>33</v>
+      </c>
+      <c r="C280" t="s">
+        <v>34</v>
+      </c>
+      <c r="D280" t="s">
+        <v>36</v>
+      </c>
+      <c r="E280" t="s">
+        <v>37</v>
+      </c>
+      <c r="F280" s="1">
+        <v>45643</v>
+      </c>
+      <c r="G280" t="s">
+        <v>40</v>
+      </c>
+      <c r="H280">
+        <v>25</v>
+      </c>
+      <c r="I280">
+        <v>101</v>
+      </c>
+      <c r="J280">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A281" t="s">
+        <v>32</v>
+      </c>
+      <c r="B281" t="s">
+        <v>33</v>
+      </c>
+      <c r="C281" t="s">
+        <v>34</v>
+      </c>
+      <c r="D281" t="s">
+        <v>36</v>
+      </c>
+      <c r="E281" t="s">
+        <v>37</v>
+      </c>
+      <c r="F281" s="1">
+        <v>45643</v>
+      </c>
+      <c r="G281" t="s">
+        <v>40</v>
+      </c>
+      <c r="H281">
+        <v>26</v>
+      </c>
+      <c r="I281" s="2">
+        <v>102</v>
+      </c>
+      <c r="J281">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A282" t="s">
+        <v>32</v>
+      </c>
+      <c r="B282" t="s">
+        <v>33</v>
+      </c>
+      <c r="C282" t="s">
+        <v>34</v>
+      </c>
+      <c r="D282" t="s">
+        <v>36</v>
+      </c>
+      <c r="E282" t="s">
+        <v>37</v>
+      </c>
+      <c r="F282" s="1">
+        <v>45643</v>
+      </c>
+      <c r="G282" t="s">
+        <v>40</v>
+      </c>
+      <c r="H282">
+        <v>27</v>
+      </c>
+      <c r="I282" s="2">
+        <v>103</v>
+      </c>
+      <c r="J282">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A283" t="s">
+        <v>32</v>
+      </c>
+      <c r="B283" t="s">
+        <v>33</v>
+      </c>
+      <c r="C283" t="s">
+        <v>34</v>
+      </c>
+      <c r="D283" t="s">
+        <v>36</v>
+      </c>
+      <c r="E283" t="s">
+        <v>37</v>
+      </c>
+      <c r="F283" s="1">
+        <v>45643</v>
+      </c>
+      <c r="G283" t="s">
+        <v>40</v>
+      </c>
+      <c r="H283">
+        <v>28</v>
+      </c>
+      <c r="I283">
+        <v>94</v>
+      </c>
+      <c r="J283">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A284" t="s">
+        <v>32</v>
+      </c>
+      <c r="B284" t="s">
+        <v>33</v>
+      </c>
+      <c r="C284" t="s">
+        <v>34</v>
+      </c>
+      <c r="D284" t="s">
+        <v>36</v>
+      </c>
+      <c r="E284" t="s">
+        <v>37</v>
+      </c>
+      <c r="F284" s="1">
+        <v>45643</v>
+      </c>
+      <c r="G284" t="s">
+        <v>40</v>
+      </c>
+      <c r="H284">
+        <v>29</v>
+      </c>
+      <c r="I284">
+        <v>97</v>
+      </c>
+      <c r="J284">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A285" t="s">
+        <v>32</v>
+      </c>
+      <c r="B285" t="s">
+        <v>33</v>
+      </c>
+      <c r="C285" t="s">
+        <v>34</v>
+      </c>
+      <c r="D285" t="s">
+        <v>36</v>
+      </c>
+      <c r="E285" t="s">
+        <v>37</v>
+      </c>
+      <c r="F285" s="1">
+        <v>45643</v>
+      </c>
+      <c r="G285" t="s">
+        <v>40</v>
+      </c>
+      <c r="H285">
+        <v>30</v>
+      </c>
+      <c r="I285" s="2">
+        <v>100</v>
+      </c>
+      <c r="J285">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A286" t="s">
+        <v>32</v>
+      </c>
+      <c r="B286" t="s">
+        <v>33</v>
+      </c>
+      <c r="C286" t="s">
+        <v>34</v>
+      </c>
+      <c r="D286" t="s">
+        <v>36</v>
+      </c>
+      <c r="E286" t="s">
+        <v>37</v>
+      </c>
+      <c r="F286" s="1">
+        <v>45643</v>
+      </c>
+      <c r="G286" t="s">
+        <v>40</v>
+      </c>
+      <c r="H286">
+        <v>31</v>
+      </c>
+      <c r="I286" s="2">
+        <v>100</v>
+      </c>
+      <c r="J286">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A287" t="s">
+        <v>32</v>
+      </c>
+      <c r="B287" t="s">
+        <v>33</v>
+      </c>
+      <c r="C287" t="s">
+        <v>34</v>
+      </c>
+      <c r="D287" t="s">
+        <v>36</v>
+      </c>
+      <c r="E287" t="s">
+        <v>37</v>
+      </c>
+      <c r="F287" s="1">
+        <v>45643</v>
+      </c>
+      <c r="G287" t="s">
+        <v>40</v>
+      </c>
+      <c r="H287">
+        <v>32</v>
+      </c>
+      <c r="I287" s="2">
+        <v>97</v>
+      </c>
+      <c r="J287">
         <v>0</v>
       </c>
     </row>
